--- a/latex/spreadsheets/hq_hist.xlsx
+++ b/latex/spreadsheets/hq_hist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="hq-hist" sheetId="1" r:id="rId1"/>
@@ -16107,11 +16107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="450359912"/>
-        <c:axId val="450360304"/>
+        <c:axId val="413259552"/>
+        <c:axId val="413259944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="450359912"/>
+        <c:axId val="413259552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16168,7 +16168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450360304"/>
+        <c:crossAx val="413259944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16178,7 +16178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450360304"/>
+        <c:axId val="413259944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -16236,7 +16236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450359912"/>
+        <c:crossAx val="413259552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16841,13 +16841,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:colOff>257173</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>170774</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104325</xdr:rowOff>
     </xdr:to>
@@ -17136,8 +17136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A2538" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/latex/spreadsheets/hq_hist.xlsx
+++ b/latex/spreadsheets/hq_hist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="hq-hist" sheetId="1" r:id="rId1"/>
@@ -16107,11 +16107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="413259552"/>
-        <c:axId val="413259944"/>
+        <c:axId val="368446200"/>
+        <c:axId val="368447768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="413259552"/>
+        <c:axId val="368446200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16168,17 +16168,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413259944"/>
+        <c:crossAx val="368447768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="250"/>
-        <c:tickMarkSkip val="250"/>
+        <c:tickMarkSkip val="500"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413259944"/>
+        <c:axId val="368447768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -16236,7 +16236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413259552"/>
+        <c:crossAx val="368446200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16846,10 +16846,10 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104325</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199573</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17136,8 +17136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2538" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
